--- a/IPv6地址规划-v0.4.xlsx
+++ b/IPv6地址规划-v0.4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18E5662-9392-43D7-A519-952791C91F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2689A79C-0C31-42ED-9058-A5DF9082C6FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1621,23 +1621,23 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2936,10 +2936,10 @@
       <c r="G9" s="12">
         <v>64</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="45">
         <v>128</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="45"/>
       <c r="L9" s="12">
         <v>16</v>
       </c>
@@ -2952,24 +2952,24 @@
       <c r="O9" s="12">
         <v>64</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="45">
         <v>128</v>
       </c>
-      <c r="Q9" s="42"/>
+      <c r="Q9" s="45"/>
     </row>
     <row r="10" spans="4:17" ht="15.75">
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
       <c r="N10" s="10"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
     </row>
     <row r="11" spans="4:17" ht="15.75">
       <c r="D11" s="13" t="s">
@@ -2984,10 +2984,10 @@
       <c r="G11" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="44"/>
+      <c r="I11" s="46"/>
       <c r="L11" s="13" t="s">
         <v>119</v>
       </c>
@@ -3000,13 +3000,13 @@
       <c r="O11" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="P11" s="44" t="s">
+      <c r="P11" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="Q11" s="44"/>
+      <c r="Q11" s="46"/>
     </row>
     <row r="12" spans="4:17" ht="15.75">
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -3018,8 +3018,8 @@
       <c r="G12" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="L12" s="14" t="s">
         <v>72</v>
       </c>
@@ -3032,11 +3032,11 @@
       <c r="O12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
     </row>
     <row r="13" spans="4:17" ht="15.75">
-      <c r="D13" s="47"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="7" t="s">
         <v>121</v>
       </c>
@@ -3046,9 +3046,9 @@
       <c r="G13" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="L13" s="43"/>
       <c r="M13" s="7" t="s">
         <v>137</v>
       </c>
@@ -3058,11 +3058,11 @@
       <c r="O13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="4:17" ht="15.75">
-      <c r="D14" s="47"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="7" t="s">
         <v>122</v>
       </c>
@@ -3072,9 +3072,9 @@
       <c r="G14" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="L14" s="45"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="L14" s="43"/>
       <c r="M14" s="7" t="s">
         <v>134</v>
       </c>
@@ -3084,11 +3084,11 @@
       <c r="O14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
     </row>
     <row r="15" spans="4:17" ht="15.75">
-      <c r="D15" s="47"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="15" t="s">
         <v>1</v>
       </c>
@@ -3098,9 +3098,9 @@
       <c r="G15" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="L15" s="45"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="L15" s="43"/>
       <c r="M15" s="15" t="s">
         <v>135</v>
       </c>
@@ -3108,11 +3108,11 @@
       <c r="O15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="45"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="43"/>
     </row>
     <row r="16" spans="4:17" ht="15.75">
-      <c r="D16" s="47"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="17" t="s">
         <v>110</v>
       </c>
@@ -3122,14 +3122,14 @@
       <c r="G16" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
       <c r="O16" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="15.75">
-      <c r="D17" s="47"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="17" t="s">
         <v>137</v>
       </c>
@@ -3139,11 +3139,11 @@
       <c r="G17" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
     </row>
     <row r="18" spans="4:9" ht="15.75">
-      <c r="D18" s="47"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="17" t="s">
         <v>145</v>
       </c>
@@ -3151,53 +3151,53 @@
       <c r="G18" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="4:9" ht="15.75">
-      <c r="D19" s="47"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="17" t="s">
         <v>146</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="4:9" ht="15.75">
-      <c r="D20" s="47"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="17" t="s">
         <v>147</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
     </row>
     <row r="21" spans="4:9" ht="15.75">
-      <c r="D21" s="47"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="17" t="s">
         <v>136</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q15"/>
+    <mergeCell ref="L13:L15"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H12:I21"/>
     <mergeCell ref="D12:D21"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q15"/>
-    <mergeCell ref="L13:L15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3923,8 +3923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305DEFEC-7F74-4B6A-97CA-A47F9ADB5F38}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4450,15 +4450,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:7">
       <c r="D33" s="22">
         <v>1079</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="4:5">
+      <c r="G33">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
       <c r="D34" s="22">
         <v>1080</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:7">
       <c r="D35" s="22">
         <v>1081</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:7">
       <c r="D36" s="28" t="s">
         <v>93</v>
       </c>
@@ -4482,7 +4485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:7">
       <c r="D37" s="33" t="s">
         <v>94</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:7">
       <c r="D39" s="22">
         <v>2064</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:7">
       <c r="D40" s="22">
         <v>2065</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:7">
       <c r="D41" s="22">
         <v>2066</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:7">
       <c r="D42" s="22">
         <v>2067</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:7">
       <c r="D43" s="22">
         <v>2068</v>
       </c>
@@ -4530,7 +4533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:7">
       <c r="D44" s="22">
         <v>2069</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:7">
       <c r="D45" s="22">
         <v>2070</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:7">
       <c r="D46" s="22">
         <v>2071</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:7">
       <c r="D47" s="22">
         <v>2072</v>
       </c>
@@ -4562,7 +4565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:7">
       <c r="D48" s="22">
         <v>2073</v>
       </c>
